--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\TakazawaYu32022\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A95FD09-9368-445D-938A-56F9B4F3A140}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949E5F9A-165B-4C08-B9E7-B797B6CE1476}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1781,7 +1781,9 @@
       <c r="E18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21" t="s">
